--- a/Documentation/Flow.xlsx
+++ b/Documentation/Flow.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workspaces\SQLPackMan\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9918D78-AA08-4FBD-978B-96192F0C0277}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="12525"/>
+    <workbookView xWindow="2655" yWindow="1245" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -15,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
   <si>
     <t>Success</t>
   </si>
@@ -184,32 +184,128 @@
     <t>StatusDate</t>
   </si>
   <si>
-    <t>Create Package</t>
-  </si>
-  <si>
-    <t>Create Package Item</t>
-  </si>
-  <si>
-    <t>Enter Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save </t>
-  </si>
-  <si>
-    <t>Else return model errors</t>
-  </si>
-  <si>
-    <t>Check database for item and sets type label if found</t>
+    <t>DdsDatabase</t>
+  </si>
+  <si>
+    <t>DdsEnvironment</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>PackageItem</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>SourceEnv</t>
+  </si>
+  <si>
+    <t>TargetEnv</t>
+  </si>
+  <si>
+    <t>DdsDatabaseId</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>DdsEnvironmentId</t>
+  </si>
+  <si>
+    <t>PackageTransfer</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>DDSEnvironment</t>
+  </si>
+  <si>
+    <t>PackageItems</t>
+  </si>
+  <si>
+    <t>EnvironmentId</t>
+  </si>
+  <si>
+    <t>DatabaseId</t>
+  </si>
+  <si>
+    <t>PackageID</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>PackageStatus</t>
+  </si>
+  <si>
+    <t>ResultText</t>
+  </si>
+  <si>
+    <t>DbObjectName</t>
+  </si>
+  <si>
+    <t>DbObjectType</t>
+  </si>
+  <si>
+    <t>EnvDatabase</t>
+  </si>
+  <si>
+    <t>CurrentEnvironment</t>
+  </si>
+  <si>
+    <t>ItemStatus</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Nav Properties</t>
+  </si>
+  <si>
+    <t>SourceEnvId</t>
+  </si>
+  <si>
+    <t>TargetEnvId</t>
+  </si>
+  <si>
+    <t>StagedPath</t>
+  </si>
+  <si>
+    <t>ApprovedPath</t>
+  </si>
+  <si>
+    <t>MaxEnvironmentId</t>
+  </si>
+  <si>
+    <t>PackageTransfers</t>
+  </si>
+  <si>
+    <t>CurrentEnvironmentId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +321,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +356,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -258,12 +387,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,7 +456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -376,7 +508,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -570,48 +702,238 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C1" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
